--- a/Current status.xlsx
+++ b/Current status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Quad</t>
   </si>
@@ -141,18 +141,12 @@
     <t>Curved roof snapthrough</t>
   </si>
   <si>
-    <t>* isotropic material modelled thru composite input</t>
-  </si>
-  <si>
     <t>Stress, strain and Tsai-Wu recovery</t>
   </si>
   <si>
     <t>Laminate tensile test</t>
   </si>
   <si>
-    <t>* strange transverse shear results</t>
-  </si>
-  <si>
     <t>Current issues</t>
   </si>
   <si>
@@ -193,6 +187,15 @@
   </si>
   <si>
     <t>Lumped and consistent options</t>
+  </si>
+  <si>
+    <t>Vibrating square plate</t>
+  </si>
+  <si>
+    <t>* node numbering may be affecting transverse shear stress results</t>
+  </si>
+  <si>
+    <t>* not the best transverse shear stress results</t>
   </si>
 </sst>
 </file>
@@ -557,6 +560,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -575,55 +602,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -943,7 +946,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,25 +966,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
@@ -1012,245 +1015,243 @@
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>52</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="25"/>
+      <c r="B9" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="38"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>40</v>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="B24" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+      <c r="B25" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="25"/>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="D29" s="16"/>
     </row>

--- a/Current status.xlsx
+++ b/Current status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Quad</t>
   </si>
@@ -69,12 +69,6 @@
     <t>General shell outputs</t>
   </si>
   <si>
-    <t>Isotropic shell outputs</t>
-  </si>
-  <si>
-    <t>Laminate shell outputs</t>
-  </si>
-  <si>
     <t>Stresses (top and bottom surfaces of laminate)  (All can be local or global), Tsai-Wu reserve factor (MIN of all surfaces across all laminae)</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>Linear dynamic</t>
   </si>
   <si>
-    <t>Clamped oscillating cantilever</t>
-  </si>
-  <si>
     <t>Force resultant and VM recovery</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>Stresses (top, mid and bottom surfaces)  (All can be local or global), Von Mises Stress (top, mid, bottom and MAX)</t>
   </si>
   <si>
-    <t>Lumped and consistent options</t>
-  </si>
-  <si>
     <t>Vibrating square plate</t>
   </si>
   <si>
@@ -196,6 +184,18 @@
   </si>
   <si>
     <t>* not the best transverse shear stress results</t>
+  </si>
+  <si>
+    <t>Both lumped and consistent implemented</t>
+  </si>
+  <si>
+    <t>Isotropic material shell outputs</t>
+  </si>
+  <si>
+    <t>Laminate material shell outputs</t>
+  </si>
+  <si>
+    <t>Oscillating clamped plate</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -581,6 +581,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,25 +627,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,16 +969,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -1015,256 +1018,250 @@
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="27"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="29"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="30"/>
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
+      <c r="A11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="38"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="B13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="34"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="28"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="34"/>
+        <v>24</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="35"/>
+      <c r="A24" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="40"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="36"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="D25" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="31"/>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="40" t="s">
-        <v>49</v>
-      </c>
       <c r="D29" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+  <mergeCells count="23">
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A11:D11"/>
@@ -1279,8 +1276,15 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
